--- a/task_api/cfg/任务导入模板.xlsx
+++ b/task_api/cfg/任务导入模板.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>工作量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,15 +82,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>执行人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>陈成F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈成F</t>
   </si>
   <si>
     <t>XXX</t>
@@ -116,7 +112,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务系统的创建者</t>
+    <t>执行者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应任务系统的创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名##任务内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>## 为分隔符，前面的识别为任务名
+   后面的为任务内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应任务系统的挑战目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,15 +628,16 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="5" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="38.875" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
     <col min="6" max="6" width="11.375" customWidth="1"/>
     <col min="7" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
@@ -627,10 +648,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -648,7 +669,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
@@ -657,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -671,16 +692,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -695,30 +716,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="27">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1">
         <v>5</v>
